--- a/biology/Botanique/Lynn_G._Clark/Lynn_G._Clark.xlsx
+++ b/biology/Botanique/Lynn_G._Clark/Lynn_G._Clark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lynn G. Clark est une spécialiste américaine des bambous ligneux tropicaux et professeur de botanique à l'université d'État de l'Iowa.
-Alors qu'elle étudiait au lycée, Lynn G. Clark a travaillé plusieurs étés avec Thomas Soderstrom, expert des graminées au Musée national d'histoire naturelle des États-Unis[1].
-Elle a obtenu son Ph.D. en botanique en travaillant avec Richard Pohl à l'Iowa State[1].
+Alors qu'elle étudiait au lycée, Lynn G. Clark a travaillé plusieurs étés avec Thomas Soderstrom, expert des graminées au Musée national d'histoire naturelle des États-Unis.
+Elle a obtenu son Ph.D. en botanique en travaillant avec Richard Pohl à l'Iowa State.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1992. Chusquea sect. Swallenochloa (Poaceae: Bambusoideae) and allies in Brazil. Brittonia 44 (4) :387-422
 ----------, W. Zhang, J..F. Wendel. 1995. A phylogeny of the grass family (Poaceae) based on ndhF sequence data. Systematic Botany 20:436-460
@@ -522,9 +536,43 @@
 Kelchner, S.A., L.G. Clark. 1997. Molecular evolution and phylogenetic utility of the chloroplast rpl16 intron in Chusquea and the Bambusoideae (Poaceae). Molecular Phylogenetics and Evolution 8:385-397
 Londono, X., L.G. Clark. 1998. Eight new taxa of bamboo (Poaceae: Bambusoideae) from Colombia. Novon 8:408-428
 Judziewicz, E.G., L.G. Clark, X. Londoño, M.J. Stern. 1999. American Bamboos. Smithsonian Institution Press
-----------, M. Kobayashi, S. Mathews, R. Spangler, E.A. Kellogg. 2000. The Puelioideae, a new subfamily of Poaceae. Systematic Botany 25:181-187
-Livres
-1986. Systematics of Chusquea section Chusquea, section Swallenochloa, section Verticillatae, and section Serpentes (Poaceae: Bambusoideae). Ed. Iowa State University. 752 pp.
+----------, M. Kobayashi, S. Mathews, R. Spangler, E.A. Kellogg. 2000. The Puelioideae, a new subfamily of Poaceae. Systematic Botany 25:181-187</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lynn_G._Clark</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lynn_G._Clark</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1986. Systematics of Chusquea section Chusquea, section Swallenochloa, section Verticillatae, and section Serpentes (Poaceae: Bambusoideae). Ed. Iowa State University. 752 pp.
 1989. Systematics of Chusquea section Swallenochloa, section Verticillatae, section Serpentes, and section Longifoliae (Poaceae-Bambusoideae). Ed. American Society of Plant Taxonomists. 127 pp.  (ISBN 0912861274)
 ----------, Richard Walter Pohl, Agnes Chase. 1996. Agnes Chase's first book of grasses: the structure of grasses explained for beginners. Ed. Smithsonian Institution Press. 127 pp.  (ISBN 1560986565)</t>
         </is>
